--- a/teste_relatorios_fluxo.xlsx
+++ b/teste_relatorios_fluxo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,206 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2021-03-04 03:00:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2021-03-04 03:01:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2021-03-04 03:01:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2021-03-04 03:01:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2021-03-04 03:01:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2021-03-04 03:01:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2021-03-04 03:01:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2021-03-04 03:01:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2021-03-04 03:01:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2021-03-04 03:01:19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/teste_relatorios_fluxo.xlsx
+++ b/teste_relatorios_fluxo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,206 +455,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2021-03-04 03:00:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2021-03-04 03:01:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2021-03-04 03:01:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2021-03-04 03:01:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2021-03-04 03:01:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2021-03-04 03:01:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2021-03-04 03:01:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2021-03-04 03:01:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2021-03-04 03:01:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2021-03-04 03:01:19</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/teste_relatorios_fluxo.xlsx
+++ b/teste_relatorios_fluxo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,26 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2021-03-08 23:11:17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/teste_relatorios_fluxo.xlsx
+++ b/teste_relatorios_fluxo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,17 +461,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>t</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021-03-08 23:11:17</t>
+          <t>2021-03-09 12:38:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>materia prima 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2021-03-09 12:38:54</t>
         </is>
       </c>
     </row>

--- a/teste_relatorios_fluxo.xlsx
+++ b/teste_relatorios_fluxo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,46 +455,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2021-03-09 12:38:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>materia prima 2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>123.0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2021-03-09 12:38:54</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/teste_relatorios_fluxo.xlsx
+++ b/teste_relatorios_fluxo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,1006 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:04:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>materia prima 19</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:05:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>materia prima 6</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:05:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>materia prima 1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:05:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>materia prima 12</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:05:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>materia prima 12</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:05:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>materia prima 12</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:05:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>materia prima 13</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:05:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:05:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>preto</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>350.0</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:05:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>materia prima 18</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:05:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>materia prima 7</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:05:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>materia prima 2</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:05:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>materia prima 1</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:05:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>materia prima 20</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:05:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:05:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2021-03-12 12:05:51</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
